--- a/Designated_Roles.xlsx
+++ b/Designated_Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kat2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzomcdaniel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F477928A-C90A-48DB-841B-47E26AB420D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9A738-0067-434E-A773-FE96E66DDD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="4940" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Categories ToolBar</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Katherine</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
   </si>
 </sst>
 </file>
@@ -405,27 +408,30 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
